--- a/public/templates/template-category.xlsx
+++ b/public/templates/template-category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kasmamora1\cassh\PityCash\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5C523E-E740-4F1D-A0D0-4B98E8FF3B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADE0585-C06B-4603-A68A-A14FFB3309F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9E988C09-0FF3-491E-B6E6-F0D323B04B86}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{9E988C09-0FF3-491E-B6E6-F0D323B04B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +34,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>jenis_kategori</t>
   </si>
 </sst>
 </file>
@@ -394,15 +388,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B105DBC-CC69-4E9C-829F-0E185A4A6483}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,6 +407,9 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
